--- a/docs/audit.xlsx
+++ b/docs/audit.xlsx
@@ -20,21 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
-  <si>
-    <t xml:space="preserve">Catégorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problème identifié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explication du problème</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonne pratique à adopter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action recommandée</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+  <si>
+    <t xml:space="preserve">Catégories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problèmes identifiés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explications des problèmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonnes pratiques à adopter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actions recommandées</t>
   </si>
   <si>
     <t xml:space="preserve">Référence</t>
@@ -91,30 +91,15 @@
     <t xml:space="preserve">https://www.alsacreations.com/astuce/lire/1151-langue-du-contenu.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Accessibilité
-+ 
-SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texte en format d’image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte inséré en format d’image peut nuire au temps de chargement de la page du site web et ne sera pas indexé par Googlebot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplacer le texte inséré en format d’image par un texte écrit directement dans la structure html pour optimiser les performances et le référencement du site web.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Utiliser la balise sémantique </t>
-    </r>
+    <t xml:space="preserve">Contraste inadapté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste du texte est trop faible par rapport à l’arrière plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclaircir le texte et/ou assombrir l’arrière plan coloré.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -125,22 +110,338 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">« &lt;p&gt;&lt;/p&gt; »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pour inscrire du texte.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt</t>
+      <t xml:space="preserve">« Eclaircir »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">le texte et
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« assombrir »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L’arrière plan coloré.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yoma-web.com/conseils-referencement/webdesign/accessibilite-couleur-contraste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libellé manquant dans le formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le formulaire n’a pas de libellé ni d’id ce qui inflige un problème de fonctionnement côté serveur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter l’id manquant dans le label et sur le champs du formulaire avec la même valeur pour que le label soit explicite, puis le libellé dans le label pour que le formulaire soit fonctionnel.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ajouter l’attribut
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« for »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« id »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dans le label, puis ajouter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« id »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dans la saisie du formulaire.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alsacreations.com/astuce/lire/6-utiliser-element-label-input-formulaires.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en page incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certains éléments sont mal situés et d’autres ont des textes à réadapter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger la mise en page et l’écriture du texte.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inspecter et modifier certains éléments du fichier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« style.css »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">et modifier certaines inscriptions des fichiers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« html »</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seinsights.com/css-et-seo-les-bienfaits-du-css-pour-le-search-engine-optimization/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre manquant dans la barre de titre (onglet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le titre de la page est manquant, ce qui peut engendrer un problème d’indexation du site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préciser le titre optimisera le référencement naturel et augmentera considérablement le nombre de visiteurs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inscrire le titre de la page html à l’intérieur de la balise sémantique </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;title&gt;&lt;/title&gt; ».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seoquantum.com/billet/balise-meta/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau de titre ignoré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une mauvaise structure peut impacter la qualité du site web, comme un niveau de titre sauté et nuire au fonctionnement d’un logiciel vocal pour les navigateurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger la structure en respectant l’ordre des balises sémantiques des titres.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Modifier la balise
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;h3&gt;&lt;/h3&gt; »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">en
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;h2&gt;&lt;/h2&gt; ».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens nuisibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bas de page contient des liens externes qui ne sont pas des liens contextuels ni internes. Les robots d’exploration portent de l’importance inutile et accordent moins de temps pour le site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bas de page ne doit accueillir que des liens de pages internes.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« Supprimer »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">les liens du bas de page.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oscar-referencement.com/comment-optimiser-un-footer-pour-le-seo-et-les-internautes/</t>
   </si>
   <si>
     <t xml:space="preserve">Accessibilité
@@ -148,15 +449,25 @@
 SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Taille du texte incorrecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte entourant l’icône est illisible. Googlebot et les autres spiders des moteurs de recherche, peuvent nuire au référencement du site web.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriger la taille du texte ou le supprimer, si celui-ci n’est pas important.</t>
-  </si>
-  <si>
+    <t xml:space="preserve">Liens redirigés vers la même page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plusieurs liens sont redirigés vers la page actuelle ce qui nuit au fonctionnement du site et infligent une perte de temps aux robots d’exploration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer par un lien correct et/ou utiliser un lien d’ancrage pour une remontée de page à la place de l’URL de la page actuelle.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Modifier le lien en inscrivant</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -167,45 +478,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">« Supprimer »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ces contenus qui ne sont pas nécessaires au fonctionnement et à la compréhension du site web.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre manquant dans la barre de titre (onglet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le titre de la page est manquant, ce qui peut engendrer un problème aux moteurs de recherche qui ne trouveront pas le site web.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préciser le titre optimisera le référencement naturel et augmentera considérablement le nombre de visiteurs.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Inscrire le titre de la page html à l’intérieur de la balise sémantique </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">une
+</t>
     </r>
     <r>
       <rPr>
@@ -217,33 +501,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">« &lt;title&gt;&lt;/title&gt; ».</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.seoquantum.com/billet/balise-meta/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niveau de titre ignoré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une mauvaise structure peut impacter la qualité du site web, comme un niveau de titre sauté et nuire au fonctionnement d’un logiciel vocal pour les navigateurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriger la structure en respectant l’ordre des balises sémantiques des titres.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Modifier la balise
-</t>
-    </r>
+      <t xml:space="preserve">« URL correct. »</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webrankinfo.com/astuces/plein-de-redirections-vers-meme-url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille du texte incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte entourant l’icône est illisible. Les robots d’exploration peuvent nuire au référencement du site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger la taille du texte ou le supprimer, si celui-ci n’est pas important.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -254,18 +527,42 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">« &lt;h3&gt;&lt;/h3&gt; »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">en
+      <t xml:space="preserve">« Supprimer »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ces contenus qui ne sont pas nécessaires au fonctionnement et à la compréhension du site web.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site web non responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google favorise les sites web responsives et celui-ci ne l’est pas, de plus ce problème est une gêne pour les visiteurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire en sorte que le site web soit adapté pour tout écrans.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adapter le site sur
 </t>
     </r>
     <r>
@@ -278,22 +575,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">« &lt;h2&gt;&lt;/h2&gt; ».</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimisation des images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une image mal optimisée rend le temps de chargement du site web important.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuster la taille des images et le poids sont indispensable pour la rapidité du chargement du site web ce qui impact aussi le référencement et permet de générer un trafic supplémentaire par d’autres biais comme Google Images.</t>
-  </si>
-  <si>
+      <t xml:space="preserve">« ordinateurs »
+« tablettes »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">et
+</t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -304,20 +600,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">« Redimensionner »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">les images avant de les ajouter et choisir le format
-</t>
-    </r>
+      <t xml:space="preserve">« mobiles »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">principalement.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doingenia.com/blog/site-responsive-et-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance
++
+SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisation des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une image mal optimisée rend le temps de chargement du site web important.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuster la taille des images et le poids sont indispensables pour la rapidité du chargement du site web, ce qui impacte aussi le référencement donc permet de générer un trafic supplémentaire par d’autres biais comme Google Images.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -328,6 +642,30 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">« Redimensionner »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">les images avant de les ajouter et choisir le format
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">« .webp »
 </t>
     </r>
@@ -344,6 +682,58 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.codeur.com/blog/seo-image-google/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance
++ 
+SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte en format d’image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte inséré en format d’image peut nuire au temps de chargement de la page du site web et ne sera pas indexé par Googlebot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer le texte inséré en format d’image par un texte écrit directement dans la structure html pour optimiser les performances et le référencement du site web.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Utiliser la balise sémantique </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;p&gt;&lt;/p&gt; »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pour inscrire du texte.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt</t>
   </si>
 </sst>
 </file>
@@ -415,6 +805,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -430,8 +821,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
@@ -469,7 +860,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,10 +870,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -498,20 +893,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -546,12 +941,12 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF7030A0"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -595,24 +990,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="76.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="78.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="10.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,173 +1048,283 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="11"/>
+    <row r="9" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="11"/>
+    <row r="10" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="11"/>
+    <row r="11" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="11"/>
+    <row r="12" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="11"/>
+    <row r="13" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="11"/>
+    <row r="15" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="11"/>
+    <row r="16" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="11"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="11"/>
+      <c r="E18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1790,14 +2295,26 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://www.alsacreations.com/astuce/lire/1151-langue-du-contenu.html"/>
-    <hyperlink ref="F3" r:id="rId2" location="erreurs_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://www.seoquantum.com/billet/balise-meta/title"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
-    <hyperlink ref="F7" r:id="rId6" display="https://www.codeur.com/blog/seo-image-google/"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://www.yoma-web.com/conseils-referencement/webdesign/accessibilite-couleur-contraste"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.alsacreations.com/astuce/lire/6-utiliser-element-label-input-formulaires.html"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://www.seinsights.com/css-et-seo-les-bienfaits-du-css-pour-le-search-engine-optimization/"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://www.seoquantum.com/billet/balise-meta/title"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
+    <hyperlink ref="F8" r:id="rId7" display="https://www.oscar-referencement.com/comment-optimiser-un-footer-pour-le-seo-et-les-internautes/"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://www.webrankinfo.com/astuces/plein-de-redirections-vers-meme-url"/>
+    <hyperlink ref="F10" r:id="rId9" display="https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/"/>
+    <hyperlink ref="F11" r:id="rId10" display="https://doingenia.com/blog/site-responsive-et-seo/"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://www.codeur.com/blog/seo-image-google/"/>
+    <hyperlink ref="F13" r:id="rId12" location="erreurs_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/audit.xlsx
+++ b/docs/audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
   <si>
     <t xml:space="preserve">Catégories</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Actions recommandées</t>
   </si>
   <si>
-    <t xml:space="preserve">Référence</t>
+    <t xml:space="preserve">Références</t>
   </si>
   <si>
     <t xml:space="preserve">Accessibilité</t>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Langue de la page manquante</t>
   </si>
   <si>
-    <t xml:space="preserve">La langue de la page n’est pas précisée. Cela peut nuire aux moteurs de recherche et aux navigateurs pour les personnes ayant un handicap visuel utilisant un logiciel adapté.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préciser le langage amènera une meilleure optimisation des moteurs de recherche et des navigateurs.</t>
+    <t xml:space="preserve">La langue de la page n’est pas précisée. Cela peut empêcher le bon fonctionnement des logiciels adaptés pour les personnes ayant un handicap visuel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préciser le langage corrigera le mauvais fonctionnement des logiciels adaptés pour les personnes ayant un handicap visuel.</t>
   </si>
   <si>
     <r>
@@ -97,55 +97,30 @@
     <t xml:space="preserve">Le contraste du texte est trop faible par rapport à l’arrière plan.</t>
   </si>
   <si>
-    <t xml:space="preserve">Eclaircir le texte et/ou assombrir l’arrière plan coloré.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">« Eclaircir »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">le texte et
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">« assombrir »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L’arrière plan coloré.</t>
+    <t xml:space="preserve">Mettre un contraste plus approprié pour que le texte est une meilleurs visibilité.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« Modification »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> du contraste.</t>
     </r>
   </si>
   <si>
@@ -155,10 +130,10 @@
     <t xml:space="preserve">Libellé manquant dans le formulaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Le formulaire n’a pas de libellé ni d’id ce qui inflige un problème de fonctionnement côté serveur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter l’id manquant dans le label et sur le champs du formulaire avec la même valeur pour que le label soit explicite, puis le libellé dans le label pour que le formulaire soit fonctionnel.</t>
+    <t xml:space="preserve">Le formulaire n’a pas de libellé ni d'id ce qui inflige un problème de fonctionnement côté serveur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter l'id manquant dans le label et sur le champs du formulaire avec la même valeur pour que le label soit explicite, puis le libellé dans le label pour que le formulaire soit fonctionnel.</t>
   </si>
   <si>
     <r>
@@ -300,16 +275,91 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">« html »</t>
+      <t xml:space="preserve">« html ».</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">https://www.seinsights.com/css-et-seo-les-bienfaits-du-css-pour-le-search-engine-optimization/</t>
   </si>
   <si>
+    <t xml:space="preserve">Aucune police par défaut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une police par défaut est manquante ce qui peut engendrer un problème de lisibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter une police par défaut pour assurer que le texte soit correctement lisible.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ajout d’une police par défaut dans
+le fichier style.css
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« font-family ».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.agence90.fr/police-seo/#Impact_sur_le_temps_de_chargement</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEO</t>
   </si>
   <si>
+    <t xml:space="preserve">Liens nuisibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bas de page contient des liens externes qui ne sont pas des liens contextuels ni internes. Les robots d’exploration portent de l’importance inutile et accordent moins de temps pour le site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bas de page ne doit accueillir que des liens de pages internes.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« Supprimer »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">les liens du bas de page.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oscar-referencement.com/comment-optimiser-un-footer-pour-le-seo-et-les-internautes/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Titre manquant dans la barre de titre (onglet)</t>
   </si>
   <si>
@@ -346,13 +396,162 @@
     <t xml:space="preserve">https://www.seoquantum.com/billet/balise-meta/title</t>
   </si>
   <si>
+    <t xml:space="preserve">Balises sémantiques manquantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La structure n’est pas correct. Aucun sens sémantique n’est donné ce qui n’indique pas l’importance d’un élément dans le site web pour les robots d’exploration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organiser la structure correctement en remplaçant les balises sémantiques actuelles par d’autres qui ont un sens sémantique.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Remplacer les balises sémantiques
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;div&gt; »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">par
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;section&gt;&lt;/section&gt; »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;article&gt;&lt;/article&gt; »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+ou autre.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pixelcrea.com/blog/semantique-seo-page/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éviter la répétition des mots-clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le mot-clé « agence » est répété trop souvent peut définir le site web comme étant de mauvaise qualité, par les robots d’exploration, dû à une sur-optimisation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier certains contenus pour éviter les répitions des mots-clés.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">« Reformuler »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> certains texte ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">« supprimer »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> le sur-plus.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cocolyze.com/fr/glossaire-seo/rptition-des-mots-cls</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niveau de titre ignoré</t>
   </si>
   <si>
     <t xml:space="preserve">Une mauvaise structure peut impacter la qualité du site web, comme un niveau de titre sauté et nuire au fonctionnement d’un logiciel vocal pour les navigateurs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Corriger la structure en respectant l’ordre des balises sémantiques des titres.</t>
+    <t xml:space="preserve">Corriger la structure en respectant la hiérarchie des balises sémantiques des titres.</t>
   </si>
   <si>
     <r>
@@ -407,41 +606,139 @@
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
   </si>
   <si>
-    <t xml:space="preserve">Liens nuisibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le bas de page contient des liens externes qui ne sont pas des liens contextuels ni internes. Les robots d’exploration portent de l’importance inutile et accordent moins de temps pour le site web.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le bas de page ne doit accueillir que des liens de pages internes.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">« Supprimer »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">les liens du bas de page.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.oscar-referencement.com/comment-optimiser-un-footer-pour-le-seo-et-les-internautes/</t>
+    <t xml:space="preserve">!important utilisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mention utilisé est une mauvaise pratique qui peut engendrer des confusion, donc un mauvais fonctionnement du site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer cette mention, puis modifier la mise en page correctement.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Supprimer la mention
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">«!important »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+puis modifier la mise en page en conséquence.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zonecss.fr/proprietes-css/important-css.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code non valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’ensemble du code n’est pas validé ce qui veut dire que la totalité des règles du W3C n’est pas respecté et cause un problème de référencement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger l’ensemble du code pour qu’il soit valide et conforme à la totalité des règles du W3C.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Avoir un code valide aux règles du </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« W3C »</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seo-reference.net/optimisation/code-valide.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise de script manquante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise de script « defer » est manquant qui engendre un manque d’optimisation de performance du site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise « defer » permet de charger le script en différé, ce qui signifie l’attente de la fin du chargement de tout le contenu du site web avant le chargement du script en question.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ajouter la balise
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« defer »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dans le script de l’importation javascript.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alsacreations.com/astuce/lire/1562-script-attribut-async-defer.html</t>
   </si>
   <si>
     <t xml:space="preserve">Accessibilité
@@ -449,100 +746,172 @@
 SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Liens redirigés vers la même page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plusieurs liens sont redirigés vers la page actuelle ce qui nuit au fonctionnement du site et infligent une perte de temps aux robots d’exploration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplacer par un lien correct et/ou utiliser un lien d’ancrage pour une remontée de page à la place de l’URL de la page actuelle.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Modifier le lien en inscrivant</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">une
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">« URL correct. »</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.webrankinfo.com/astuces/plein-de-redirections-vers-meme-url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taille du texte incorrecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte entourant l’icône est illisible. Les robots d’exploration peuvent nuire au référencement du site web.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriger la taille du texte ou le supprimer, si celui-ci n’est pas important.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">« Supprimer »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ces contenus qui ne sont pas nécessaires au fonctionnement et à la compréhension du site web.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/</t>
+    <t xml:space="preserve">Formulaire mal structurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La structure du formulaire n’est pas conforme pour être compris correctement pour le référencement. La disposition n’est pas soigné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structurer le formulaire correctement en renseignant tout les détails nécessaire pour le bon fonctionnement. Modifier sa disposition proprement.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ajouter dans la structure du formulaire
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« action, method »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">le libellé
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« for »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Puis modifier la mise en page CSS.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://oseox.fr/referencement/formulaire-referencement.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise « alt » mal référencée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une mauvaise description de la balise « alt » cause une gêne pour la compréhension des personnes ayant un handicap visuel utilisant un logiciel adapté. Les robots d’exploration prennent en compte cette balise pour le positionnement sur les moteurs de recherche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimiser la balise « alt » en utilisant les mots-clés les plus adaptés pour un meilleurs référencement et une description plus précise dédié aux personnes utilisant un logiciel adapté.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Décrire plus précisément, dans la balise
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« alt »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+le contenu ajouté.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://smartkeyword.io/seo-on-page-images-attribut-alt/#pourquoi_image_alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise sémantique « h1 » manquante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le titre principale du site web n’a pas la balise sémantique spécifique qui est très importante pour la visibilité, que ce soit pour les visiteurs ou pour les robots d’exploration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le titre principal du site web doit avoir une balise sémantique spécifique qui permettrai de rendre le site web plus visible pour les visiteurs et une meilleurs compréhension pour les robots d’exploration.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ajouter la balise sémantique
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« h1 »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">au titre principal du site web.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.deastanceservices.fr/externalisation-de-service/astuce-seo-balise-h1/</t>
   </si>
   <si>
     <t xml:space="preserve">Site web non responsive</t>
@@ -616,6 +985,157 @@
   </si>
   <si>
     <t xml:space="preserve">https://doingenia.com/blog/site-responsive-et-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens redirigés vers la même page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plusieurs liens sont redirigés vers la page actuelle ce qui nuit au fonctionnement du site et infligent une perte de temps aux robots d’exploration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer par un lien correct et/ou utiliser un lien d’ancrage pour une remontée de page à la place de l’URL de la page actuelle.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Modifier le lien en inscrivant</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">une
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« URL correct. »</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webrankinfo.com/astuces/plein-de-redirections-vers-meme-url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille du texte incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte entourant l’icône est illisible. Les robots d’exploration peuvent nuire au référencement du site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger la taille du texte ou le supprimer, si celui-ci n’est pas important.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« Supprimer »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ces contenus qui ne sont pas nécessaires au fonctionnement et à la compréhension du site web.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance
++ 
+SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte en format d’image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte inséré en format d’image peut nuire au temps de chargement de la page du site web et ne sera pas indexé par Googlebot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer l’image avec une structure correct du paragraphe.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Utiliser la balise sémantique 
+« &lt;h2&gt;&lt;/h2&gt; »
+pour énoncer le titre et
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« &lt;p&gt;&lt;/p&gt; »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pour inscrire le texte.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt</t>
   </si>
   <si>
     <t xml:space="preserve">Performance
@@ -684,56 +1204,95 @@
     <t xml:space="preserve">https://www.codeur.com/blog/seo-image-google/</t>
   </si>
   <si>
-    <t xml:space="preserve">Performance
-+ 
+    <t xml:space="preserve">Accessibilité
++
+Performance
++
 SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Texte en format d’image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte inséré en format d’image peut nuire au temps de chargement de la page du site web et ne sera pas indexé par Googlebot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplacer le texte inséré en format d’image par un texte écrit directement dans la structure html pour optimiser les performances et le référencement du site web.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Utiliser la balise sémantique </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">« &lt;p&gt;&lt;/p&gt; »
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pour inscrire du texte.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt</t>
+    <t xml:space="preserve">Minification non réalisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La minification n’est pas existante. Le temps de chargement n’est pas optimiser et les visiteurs ne s’attarderont pas sur le site web si son fonctionnement met trop de temps. De plus, la rapidité du site web permet un meilleurs référencement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exécuter la minification permettra une meilleurs optimisation par rapport au temps de chargement du site web et aussi un meilleurs référencement.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« Minifier »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CSS et Javascript.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.lws-hosting.com/referencement-naturel-seo/comment-optimiser-son-site-web-avec-la-minification-css-js-et-html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier htaccess manquant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un manque d’optimisation à cause du fichier « .htaccess » qui n’est pas créé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le fichier « .htaccess » permet d’améliorer le site web en ajoutant des nouvelles fonctionnalité ques ce soit pour les visiteurs, la performance et le référencement.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Création du fichier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« .htaccess »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openweb.eu.org/articles/le-fichier-htaccess</t>
   </si>
 </sst>
 </file>
@@ -743,7 +1302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -784,12 +1343,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -805,14 +1358,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,17 +1388,59 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2A6099"/>
-        <bgColor rgb="FF666699"/>
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA16A"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -860,7 +1469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -869,47 +1478,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -945,9 +1574,9 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF2A6099"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFFA16A"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -970,7 +1599,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -993,7 +1622,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1003,7 +1632,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="78.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="100.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="10.57"/>
   </cols>
   <sheetData>
@@ -1066,6 +1695,7 @@
       <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -1080,12 +1710,13 @@
       <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -1103,9 +1734,10 @@
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -1123,35 +1755,37 @@
       <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1160,181 +1794,406 @@
       <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>43</v>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
+      <c r="A11" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="F13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="D14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="12"/>
+    <row r="15" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="12"/>
+    <row r="16" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="12"/>
+    <row r="17" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="12"/>
+    <row r="18" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="12"/>
+    <row r="19" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="12"/>
+    <row r="20" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="12"/>
+    <row r="21" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E21" s="12"/>
+    <row r="22" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E22" s="12"/>
+    <row r="23" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="16" customFormat="true" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2299,7 +3158,16 @@
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
@@ -2307,14 +3175,25 @@
     <hyperlink ref="F3" r:id="rId2" display="https://www.yoma-web.com/conseils-referencement/webdesign/accessibilite-couleur-contraste"/>
     <hyperlink ref="F4" r:id="rId3" display="https://www.alsacreations.com/astuce/lire/6-utiliser-element-label-input-formulaires.html"/>
     <hyperlink ref="F5" r:id="rId4" display="https://www.seinsights.com/css-et-seo-les-bienfaits-du-css-pour-le-search-engine-optimization/"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://www.seoquantum.com/billet/balise-meta/title"/>
-    <hyperlink ref="F7" r:id="rId6" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://www.oscar-referencement.com/comment-optimiser-un-footer-pour-le-seo-et-les-internautes/"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://www.webrankinfo.com/astuces/plein-de-redirections-vers-meme-url"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/"/>
-    <hyperlink ref="F11" r:id="rId10" display="https://doingenia.com/blog/site-responsive-et-seo/"/>
-    <hyperlink ref="F12" r:id="rId11" display="https://www.codeur.com/blog/seo-image-google/"/>
-    <hyperlink ref="F13" r:id="rId12" location="erreurs_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt"/>
+    <hyperlink ref="F6" r:id="rId5" location="Impact_sur_le_temps_de_chargement" display="https://www.agence90.fr/police-seo/#Impact_sur_le_temps_de_chargement"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://www.oscar-referencement.com/comment-optimiser-un-footer-pour-le-seo-et-les-internautes/"/>
+    <hyperlink ref="F8" r:id="rId7" display="https://www.seoquantum.com/billet/balise-meta/title"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://www.pixelcrea.com/blog/semantique-seo-page/"/>
+    <hyperlink ref="F10" r:id="rId9" display="https://cocolyze.com/fr/glossaire-seo/rptition-des-mots-cls"/>
+    <hyperlink ref="F11" r:id="rId10" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://www.zonecss.fr/proprietes-css/important-css.html"/>
+    <hyperlink ref="F13" r:id="rId12" display="https://www.seo-reference.net/optimisation/code-valide.html"/>
+    <hyperlink ref="F14" r:id="rId13" display="https://www.alsacreations.com/astuce/lire/1562-script-attribut-async-defer.html"/>
+    <hyperlink ref="F15" r:id="rId14" display="https://oseox.fr/referencement/formulaire-referencement.html"/>
+    <hyperlink ref="F16" r:id="rId15" location="pourquoi_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#pourquoi_image_alt"/>
+    <hyperlink ref="F17" r:id="rId16" display="https://www.deastanceservices.fr/externalisation-de-service/astuce-seo-balise-h1/"/>
+    <hyperlink ref="F18" r:id="rId17" display="https://doingenia.com/blog/site-responsive-et-seo/"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://www.webrankinfo.com/astuces/plein-de-redirections-vers-meme-url"/>
+    <hyperlink ref="F20" r:id="rId19" display="https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/"/>
+    <hyperlink ref="F21" r:id="rId20" location="erreurs_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt"/>
+    <hyperlink ref="F22" r:id="rId21" display="https://www.codeur.com/blog/seo-image-google/"/>
+    <hyperlink ref="F23" r:id="rId22" display="https://blog.lws-hosting.com/referencement-naturel-seo/comment-optimiser-son-site-web-avec-la-minification-css-js-et-html"/>
+    <hyperlink ref="F24" r:id="rId23" display="https://openweb.eu.org/articles/le-fichier-htaccess"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/audit.xlsx
+++ b/docs/audit.xlsx
@@ -508,6 +508,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">« Reformuler »</t>
     </r>
@@ -517,6 +518,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> certains texte ou </t>
     </r>
@@ -528,6 +530,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">« supprimer »</t>
     </r>
@@ -537,6 +540,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> le sur-plus.</t>
     </r>
@@ -1248,7 +1252,7 @@
     <t xml:space="preserve">https://blog.lws-hosting.com/referencement-naturel-seo/comment-optimiser-son-site-web-avec-la-minification-css-js-et-html</t>
   </si>
   <si>
-    <t xml:space="preserve">Fichier htaccess manquant</t>
+    <t xml:space="preserve">Fichier .htaccess manquant</t>
   </si>
   <si>
     <t xml:space="preserve">Un manque d’optimisation à cause du fichier « .htaccess » qui n’est pas créé.</t>
@@ -1302,7 +1306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1363,20 +1367,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1469,7 +1459,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1514,27 +1504,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1621,8 +1591,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1857,7 +1827,7 @@
       <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -2138,50 +2108,50 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" s="16" customFormat="true" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+    <row r="24" s="12" customFormat="true" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="17"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="17"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E27" s="17"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E28" s="17"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E29" s="17"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E30" s="17"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E31" s="17"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E32" s="17"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/docs/audit.xlsx
+++ b/docs/audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t xml:space="preserve">Catégories</t>
   </si>
@@ -110,17 +110,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">« Modification »</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> du contraste.</t>
+      <t xml:space="preserve">« Modification »
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">du contraste.</t>
     </r>
   </si>
   <si>
@@ -497,7 +498,7 @@
     <t xml:space="preserve">Le mot-clé « agence » est répété trop souvent peut définir le site web comme étant de mauvaise qualité, par les robots d’exploration, dû à une sur-optimisation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Modifier certains contenus pour éviter les répitions des mots-clés.</t>
+    <t xml:space="preserve">Modifier certains contenus pour éviter les répétitions des mots-clés.</t>
   </si>
   <si>
     <r>
@@ -692,6 +693,53 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.seo-reference.net/optimisation/code-valide.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Style non conforme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du style est ajouté dans la structure html ce qui retarde l’analyse des robots d’exploration, ayant un budget pour chaques sites web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déplacer le style intégré dans la structure html dans fichier style pour éviter une perte de temps aux robots d’exploration et une meilleurs organisation.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Déplacer le style dans le fichier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">« style.css »</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ionos.fr/digitalguide/sites-internet/web-design/integrer-du-css-dans-une-page-html/</t>
   </si>
   <si>
     <t xml:space="preserve">Performance</t>
@@ -1258,7 +1306,7 @@
     <t xml:space="preserve">Un manque d’optimisation à cause du fichier « .htaccess » qui n’est pas créé.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le fichier « .htaccess » permet d’améliorer le site web en ajoutant des nouvelles fonctionnalité ques ce soit pour les visiteurs, la performance et le référencement.</t>
+    <t xml:space="preserve">Le fichier « .htaccess » permet d’améliorer le site web en ajoutant des nouvelles fonctionnalité que ce soit pour les visiteurs, la performance et le référencement.</t>
   </si>
   <si>
     <r>
@@ -1589,19 +1637,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="100.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="10.57"/>
   </cols>
@@ -1900,49 +1948,49 @@
     </row>
     <row r="14" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>80</v>
@@ -1963,7 +2011,7 @@
     </row>
     <row r="17" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>85</v>
@@ -1984,7 +2032,7 @@
     </row>
     <row r="18" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>90</v>
@@ -2005,7 +2053,7 @@
     </row>
     <row r="19" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>95</v>
@@ -2026,7 +2074,7 @@
     </row>
     <row r="20" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>100</v>
@@ -2037,7 +2085,7 @@
       <c r="D20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -2047,70 +2095,70 @@
     </row>
     <row r="21" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="G21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="G22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" s="12" customFormat="true" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>123</v>
@@ -2121,50 +2169,70 @@
       <c r="D24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="12"/>
+    <row r="25" s="12" customFormat="true" ht="84.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3138,7 +3206,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://www.alsacreations.com/astuce/lire/1151-langue-du-contenu.html"/>
@@ -3153,17 +3221,18 @@
     <hyperlink ref="F11" r:id="rId10" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
     <hyperlink ref="F12" r:id="rId11" display="https://www.zonecss.fr/proprietes-css/important-css.html"/>
     <hyperlink ref="F13" r:id="rId12" display="https://www.seo-reference.net/optimisation/code-valide.html"/>
-    <hyperlink ref="F14" r:id="rId13" display="https://www.alsacreations.com/astuce/lire/1562-script-attribut-async-defer.html"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://oseox.fr/referencement/formulaire-referencement.html"/>
-    <hyperlink ref="F16" r:id="rId15" location="pourquoi_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#pourquoi_image_alt"/>
-    <hyperlink ref="F17" r:id="rId16" display="https://www.deastanceservices.fr/externalisation-de-service/astuce-seo-balise-h1/"/>
-    <hyperlink ref="F18" r:id="rId17" display="https://doingenia.com/blog/site-responsive-et-seo/"/>
-    <hyperlink ref="F19" r:id="rId18" display="https://www.webrankinfo.com/astuces/plein-de-redirections-vers-meme-url"/>
-    <hyperlink ref="F20" r:id="rId19" display="https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/"/>
-    <hyperlink ref="F21" r:id="rId20" location="erreurs_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt"/>
-    <hyperlink ref="F22" r:id="rId21" display="https://www.codeur.com/blog/seo-image-google/"/>
-    <hyperlink ref="F23" r:id="rId22" display="https://blog.lws-hosting.com/referencement-naturel-seo/comment-optimiser-son-site-web-avec-la-minification-css-js-et-html"/>
-    <hyperlink ref="F24" r:id="rId23" display="https://openweb.eu.org/articles/le-fichier-htaccess"/>
+    <hyperlink ref="F14" r:id="rId13" display="https://www.ionos.fr/digitalguide/sites-internet/web-design/integrer-du-css-dans-une-page-html/"/>
+    <hyperlink ref="F15" r:id="rId14" display="https://www.alsacreations.com/astuce/lire/1562-script-attribut-async-defer.html"/>
+    <hyperlink ref="F16" r:id="rId15" display="https://oseox.fr/referencement/formulaire-referencement.html"/>
+    <hyperlink ref="F17" r:id="rId16" location="pourquoi_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#pourquoi_image_alt"/>
+    <hyperlink ref="F18" r:id="rId17" display="https://www.deastanceservices.fr/externalisation-de-service/astuce-seo-balise-h1/"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://doingenia.com/blog/site-responsive-et-seo/"/>
+    <hyperlink ref="F20" r:id="rId19" display="https://www.webrankinfo.com/astuces/plein-de-redirections-vers-meme-url"/>
+    <hyperlink ref="F21" r:id="rId20" display="https://www.l-agenceweb.com/referencement-naturel/comment-optimiser-un-texte-pour-le-seo/"/>
+    <hyperlink ref="F22" r:id="rId21" location="erreurs_image_alt" display="https://smartkeyword.io/seo-on-page-images-attribut-alt/#erreurs_image_alt"/>
+    <hyperlink ref="F23" r:id="rId22" display="https://www.codeur.com/blog/seo-image-google/"/>
+    <hyperlink ref="F24" r:id="rId23" display="https://blog.lws-hosting.com/referencement-naturel-seo/comment-optimiser-son-site-web-avec-la-minification-css-js-et-html"/>
+    <hyperlink ref="F25" r:id="rId24" display="https://openweb.eu.org/articles/le-fichier-htaccess"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
